--- a/工作备忘.xlsx
+++ b/工作备忘.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>日期</t>
   </si>
@@ -29,15 +29,18 @@
   <si>
     <t>构建初始版本</t>
   </si>
+  <si>
+    <t>初始版本 - 完成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -57,22 +60,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +72,127 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,114 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,25 +220,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,25 +334,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,126 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +411,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,24 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,34 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,152 +516,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,6 +675,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1030,7 +1036,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1051,18 +1057,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="4">
         <v>43507</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>43510</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作备忘.xlsx
+++ b/工作备忘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="微信小程序 - 备忘录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>构建初始版本</t>
   </si>
   <si>
-    <t>初始版本 - 完成</t>
+    <t>初始版本 - 已完成</t>
   </si>
 </sst>
 </file>
@@ -60,9 +60,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,22 +74,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -106,13 +103,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -122,61 +113,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,14 +135,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -210,6 +165,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,19 +220,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,43 +364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,115 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +411,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,32 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
